--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll3-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll3-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch4</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2947826666666666</v>
+        <v>0.2138853333333333</v>
       </c>
       <c r="H2">
-        <v>0.8843479999999999</v>
+        <v>0.641656</v>
       </c>
       <c r="I2">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N2">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O2">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P2">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q2">
-        <v>8.945426163526667</v>
+        <v>6.762713092893334</v>
       </c>
       <c r="R2">
-        <v>80.50883547174</v>
+        <v>60.86441783604</v>
       </c>
       <c r="S2">
-        <v>0.4942010215319117</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="T2">
-        <v>0.4942010215319116</v>
+        <v>0.8578613706944929</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2947826666666666</v>
+        <v>0.2138853333333333</v>
       </c>
       <c r="H3">
-        <v>0.8843479999999999</v>
+        <v>0.641656</v>
       </c>
       <c r="I3">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P3">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q3">
-        <v>0.9504110556004443</v>
+        <v>0.6895893429875555</v>
       </c>
       <c r="R3">
-        <v>8.553699500403997</v>
+        <v>6.206304086887999</v>
       </c>
       <c r="S3">
-        <v>0.05250662248692562</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="T3">
-        <v>0.05250662248692561</v>
+        <v>0.08747555172986396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2947826666666666</v>
+        <v>0.2138853333333333</v>
       </c>
       <c r="H4">
-        <v>0.8843479999999999</v>
+        <v>0.641656</v>
       </c>
       <c r="I4">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N4">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q4">
-        <v>0.5939075802742221</v>
+        <v>0.4309212689217778</v>
       </c>
       <c r="R4">
-        <v>5.345168222467999</v>
+        <v>3.878291420296</v>
       </c>
       <c r="S4">
-        <v>0.03281115147580095</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="T4">
-        <v>0.03281115147580095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.2138853333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.641656</v>
-      </c>
-      <c r="I5">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="J5">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>30.345835</v>
-      </c>
-      <c r="N5">
-        <v>91.03750500000001</v>
-      </c>
-      <c r="O5">
-        <v>0.8527782452855476</v>
-      </c>
-      <c r="P5">
-        <v>0.8527782452855475</v>
-      </c>
-      <c r="Q5">
-        <v>6.490529034253335</v>
-      </c>
-      <c r="R5">
-        <v>58.41476130828001</v>
-      </c>
-      <c r="S5">
-        <v>0.3585772237536359</v>
-      </c>
-      <c r="T5">
-        <v>0.3585772237536358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.2138853333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.641656</v>
-      </c>
-      <c r="I6">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="J6">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>3.224107666666666</v>
-      </c>
-      <c r="N6">
-        <v>9.672322999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.09060383010029813</v>
-      </c>
-      <c r="P6">
-        <v>0.09060383010029811</v>
-      </c>
-      <c r="Q6">
-        <v>0.6895893429875555</v>
-      </c>
-      <c r="R6">
-        <v>6.206304086887999</v>
-      </c>
-      <c r="S6">
-        <v>0.03809720761337251</v>
-      </c>
-      <c r="T6">
-        <v>0.0380972076133725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.2138853333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.641656</v>
-      </c>
-      <c r="I7">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="J7">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.014730333333333</v>
-      </c>
-      <c r="N7">
-        <v>6.044191</v>
-      </c>
-      <c r="O7">
-        <v>0.05661792461415433</v>
-      </c>
-      <c r="P7">
-        <v>0.05661792461415433</v>
-      </c>
-      <c r="Q7">
-        <v>0.4309212689217777</v>
-      </c>
-      <c r="R7">
-        <v>3.878291420296</v>
-      </c>
-      <c r="S7">
-        <v>0.02380677313835338</v>
-      </c>
-      <c r="T7">
-        <v>0.02380677313835338</v>
+        <v>0.05466307757564324</v>
       </c>
     </row>
   </sheetData>
